--- a/document/联想搜索.xlsx
+++ b/document/联想搜索.xlsx
@@ -428,12 +428,12 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="21.875" customWidth="1"/>
@@ -518,7 +518,7 @@
         <v>200</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -586,7 +586,7 @@
         <v>200</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -595,5 +595,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>